--- a/Kriging/Article/SphericalModel/content/results/metrics_4_6.xlsx
+++ b/Kriging/Article/SphericalModel/content/results/metrics_4_6.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_17</t>
+          <t>model_4_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9989250808376734</v>
+        <v>0.9960605918148466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8117913988816684</v>
+        <v>0.6311662174759466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.996002606756443</v>
+        <v>0.9975229570075876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.996027140881232</v>
+        <v>0.9973163640818919</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9960392710621881</v>
+        <v>0.9975162959829132</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000534621619463144</v>
+        <v>0.001449246686325587</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1117287558120777</v>
+        <v>0.2189556660960759</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001673540691115003</v>
+        <v>0.0005296362283185583</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001858023032303275</v>
+        <v>0.0006988069931845054</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001765779001203721</v>
+        <v>0.0006142214970108052</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007254663791976983</v>
+        <v>0.009322805077611986</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02312188615712706</v>
+        <v>0.03806897275112091</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000151269428161</v>
+        <v>1.000301362315266</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02322868527582563</v>
+        <v>0.03837475254485982</v>
       </c>
       <c r="P2" t="n">
-        <v>3533.06790262926</v>
+        <v>3531.073422768445</v>
       </c>
       <c r="Q2" t="n">
-        <v>9486.394718075268</v>
+        <v>8520.093297096095</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_19</t>
+          <t>model_4_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9989127366060043</v>
+        <v>0.9965940958152456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8117825195232058</v>
+        <v>0.6307273036726263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9959730583064732</v>
+        <v>0.9969773663349445</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9959665395835977</v>
+        <v>0.9970481762101586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9959936121941498</v>
+        <v>0.9971392380599847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0005407611445151251</v>
+        <v>0.001252978904877182</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1117340269828295</v>
+        <v>0.2192162242898159</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001685911386308348</v>
+        <v>0.0006462933016716049</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001886364990431134</v>
+        <v>0.0007686419357674272</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001786134716443682</v>
+        <v>0.0007074681480963001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007233197795946569</v>
+        <v>0.009467849623058336</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02325427153266954</v>
+        <v>0.03539744206686666</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000153006586574</v>
+        <v>1.000260549585737</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0233616821344167</v>
+        <v>0.03568176343810126</v>
       </c>
       <c r="P3" t="n">
-        <v>3533.045065767953</v>
+        <v>3531.364462877805</v>
       </c>
       <c r="Q3" t="n">
-        <v>9486.371881213961</v>
+        <v>8520.384337205456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_18</t>
+          <t>model_4_6_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9989136969485348</v>
+        <v>0.9972879903681588</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8117823878025539</v>
+        <v>0.6302736619222342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9959753389557519</v>
+        <v>0.995678859131583</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9959712586259593</v>
+        <v>0.9962980140643731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9959971559240834</v>
+        <v>0.9961829495538496</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0005402835087105582</v>
+        <v>0.00099770594655344</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1117341051778985</v>
+        <v>0.2194855256291519</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001684956574225222</v>
+        <v>0.0009239374361252635</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001884157993118595</v>
+        <v>0.0009639808600827469</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00178455484465725</v>
+        <v>0.0009439588707313968</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007234452510197901</v>
+        <v>0.009424384706826114</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02324399941297879</v>
+        <v>0.03158648360538792</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000152871441095</v>
+        <v>1.000207467077099</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02335136256819314</v>
+        <v>0.03184019437675378</v>
       </c>
       <c r="P4" t="n">
-        <v>3533.046833080096</v>
+        <v>3531.820103935601</v>
       </c>
       <c r="Q4" t="n">
-        <v>9486.373648526103</v>
+        <v>8520.839978263251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_21</t>
+          <t>model_4_6_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9989111262250432</v>
+        <v>0.9969089038006809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8117816515598436</v>
+        <v>0.630068072358877</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9959691376414302</v>
+        <v>0.99593703113191</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9959587174777467</v>
+        <v>0.9965245053318466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9959876601889178</v>
+        <v>0.9964137995500324</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0005415620833275692</v>
+        <v>0.0011371659684467</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1117345422433753</v>
+        <v>0.2196075724749674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001687552804123881</v>
+        <v>0.0008687356310175168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001890023225570563</v>
+        <v>0.0009050035299100193</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001788788249674285</v>
+        <v>0.0008868695278528243</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007230527472259392</v>
+        <v>0.009750556343436542</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02327148648727814</v>
+        <v>0.03372189153126941</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000153233209576</v>
+        <v>1.000236466967512</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02337897660425032</v>
+        <v>0.03399275444906679</v>
       </c>
       <c r="P5" t="n">
-        <v>3533.042105694888</v>
+        <v>3531.558432208753</v>
       </c>
       <c r="Q5" t="n">
-        <v>9486.368921140895</v>
+        <v>8520.578306536405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_20</t>
+          <t>model_4_6_24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9989122809144169</v>
+        <v>0.9977194352546624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8117808490464631</v>
+        <v>0.628138200081927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9959720684087002</v>
+        <v>0.9887816109484386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9959642221501386</v>
+        <v>0.987960499361583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9959919244443679</v>
+        <v>0.988811742559195</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0005409877872088252</v>
+        <v>0.0008389841176112448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1117350186499848</v>
+        <v>0.2207532280247065</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00168632581493776</v>
+        <v>0.00239869282982956</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00188744880554113</v>
+        <v>0.003135033028812109</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001786887151960247</v>
+        <v>0.002766862793214008</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007231373665662448</v>
+        <v>0.006890145285644957</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02325914416329253</v>
+        <v>0.02896522255414663</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000153070714378</v>
+        <v>1.000174461807324</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02336657727153647</v>
+        <v>0.02919787868164741</v>
       </c>
       <c r="P6" t="n">
-        <v>3533.044227707696</v>
+        <v>3532.166637563636</v>
       </c>
       <c r="Q6" t="n">
-        <v>9486.371043153704</v>
+        <v>8521.186511891287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_22</t>
+          <t>model_4_6_23</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9989103933263952</v>
+        <v>0.9977152085697123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8117788791979841</v>
+        <v>0.628095789151824</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9959684008136028</v>
+        <v>0.9887434328398772</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9959542277939495</v>
+        <v>0.9879793527389357</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9959849578687815</v>
+        <v>0.9888051720081105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005419265976797764</v>
+        <v>0.0008405390489284087</v>
       </c>
       <c r="H7" t="n">
-        <v>0.111736188037135</v>
+        <v>0.2207784049848725</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001687861282994059</v>
+        <v>0.002406855994330458</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001892122956684485</v>
+        <v>0.003130123692247382</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001789993002694758</v>
+        <v>0.002768487694448445</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007227132953225948</v>
+        <v>0.006957812847563867</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02327931695045575</v>
+        <v>0.02899205147843817</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000153336347712</v>
+        <v>1.000174785146136</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02338684323604154</v>
+        <v>0.0292249231027686</v>
       </c>
       <c r="P7" t="n">
-        <v>3533.040759988662</v>
+        <v>3532.162934294059</v>
       </c>
       <c r="Q7" t="n">
-        <v>9486.36757543467</v>
+        <v>8521.18280862171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_23</t>
+          <t>model_4_6_22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9989097345734222</v>
+        <v>0.9977115018098508</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8117784403798786</v>
+        <v>0.6280480555677641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9959665117793489</v>
+        <v>0.9887098829834658</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9959512735311155</v>
+        <v>0.9880056438558499</v>
       </c>
       <c r="F8" t="n">
-        <v>0.995982536924681</v>
+        <v>0.9888045283474084</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0005422542349510412</v>
+        <v>0.0008419027079334358</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1117364485385183</v>
+        <v>0.2208067417023539</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001688652142311186</v>
+        <v>0.002414029555493809</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001893504603560207</v>
+        <v>0.003123277601004417</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001791072312166056</v>
+        <v>0.002768646872127118</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007226850453855843</v>
+        <v>0.007030750031001637</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02328635297660502</v>
+        <v>0.02901555975564552</v>
       </c>
       <c r="N8" t="n">
-        <v>1.0001534290516</v>
+        <v>1.000175068710997</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02339391176132979</v>
+        <v>0.029248620204513</v>
       </c>
       <c r="P8" t="n">
-        <v>3533.039551196655</v>
+        <v>3532.159692198342</v>
       </c>
       <c r="Q8" t="n">
-        <v>9486.366366642662</v>
+        <v>8521.179566525992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_24</t>
+          <t>model_4_6_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9989093237730663</v>
+        <v>0.9977080392420237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8117770678272597</v>
+        <v>0.6280013657870482</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9959653396048312</v>
+        <v>0.9886808634646482</v>
       </c>
       <c r="E9" t="n">
-        <v>0.995949450673575</v>
+        <v>0.9880382580042452</v>
       </c>
       <c r="F9" t="n">
-        <v>0.995981020900131</v>
+        <v>0.9888091375714543</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0005424585505492013</v>
+        <v>0.0008431765325065427</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1117372633450441</v>
+        <v>0.2208344587730803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001689142882559359</v>
+        <v>0.002420234449208325</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001894357115867727</v>
+        <v>0.003114785020166022</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001791748188843776</v>
+        <v>0.002767507008248796</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007226073802676064</v>
+        <v>0.00710973092993545</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02329073958785339</v>
+        <v>0.02903750217402562</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000153486862026</v>
+        <v>1.000175333595317</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02339831863416982</v>
+        <v>0.02927073887004877</v>
       </c>
       <c r="P9" t="n">
-        <v>3533.038797759973</v>
+        <v>3532.156668424064</v>
       </c>
       <c r="Q9" t="n">
-        <v>9486.36561320598</v>
+        <v>8521.176542751715</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_16</t>
+          <t>model_4_6_20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9989653385409597</v>
+        <v>0.9977023085997242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8117328862155617</v>
+        <v>0.6279469027248279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9960984661036374</v>
+        <v>0.9886372999375717</v>
       </c>
       <c r="E10" t="n">
-        <v>0.996225966809768</v>
+        <v>0.9880713025761033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9961885571615132</v>
+        <v>0.9888076914767723</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0005145990547149185</v>
+        <v>0.0008452847462210446</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1117634914582943</v>
+        <v>0.2208667903994961</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001633408407804632</v>
+        <v>0.002429549112798627</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001765036308234987</v>
+        <v>0.003106180358950428</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001699224015114366</v>
+        <v>0.002767864628333277</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007302606659674855</v>
+        <v>0.007199244930935977</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02268477583567707</v>
+        <v>0.02907378107885255</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000145604109346</v>
+        <v>1.000175771985945</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02278955595831331</v>
+        <v>0.02930730917638284</v>
       </c>
       <c r="P10" t="n">
-        <v>3533.1442449901</v>
+        <v>3532.15167401919</v>
       </c>
       <c r="Q10" t="n">
-        <v>9486.471060436108</v>
+        <v>8521.17154834684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_14</t>
+          <t>model_4_6_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9990897663020126</v>
+        <v>0.9977006394604263</v>
       </c>
       <c r="C11" t="n">
-        <v>0.811580862512625</v>
+        <v>0.6279001364355312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9964474922475723</v>
+        <v>0.9886243857218526</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9968069901133665</v>
+        <v>0.9881288495902367</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9966571988487765</v>
+        <v>0.988832411139355</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004527136837477333</v>
+        <v>0.0008458987964749758</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1118537392954395</v>
+        <v>0.2208945528890211</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001487285817769348</v>
+        <v>0.002432310403791989</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001493303873704159</v>
+        <v>0.003091195369503104</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001490293370414599</v>
+        <v>0.002761751440911299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007294779354308065</v>
+        <v>0.007290539770548286</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02127706943513917</v>
+        <v>0.02908433936803406</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000128093847253</v>
+        <v>1.00017589967408</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02137534741508937</v>
+        <v>0.02931795227246232</v>
       </c>
       <c r="P11" t="n">
-        <v>3533.400501354025</v>
+        <v>3532.15022166286</v>
       </c>
       <c r="Q11" t="n">
-        <v>9486.727316800032</v>
+        <v>8521.17009599051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_13</t>
+          <t>model_4_6_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9991058173198275</v>
+        <v>0.9976997767806252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8115430031923001</v>
+        <v>0.6278513197621853</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9964991748616886</v>
+        <v>0.9886177780044511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9968841928191179</v>
+        <v>0.9882034363469301</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9967219604867541</v>
+        <v>0.9888688111632942</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00044473055214214</v>
+        <v>0.0008462161628874971</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1118762142234218</v>
+        <v>0.2209235325750897</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001465648477513633</v>
+        <v>0.002433723252310605</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001457197784574388</v>
+        <v>0.00307177330601657</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001461421225357447</v>
+        <v>0.002752749693101852</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007331534920776663</v>
+        <v>0.007388272385361378</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02108863561594585</v>
+        <v>0.02908979482374355</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000125835046431</v>
+        <v>1.000175965668557</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02118604322720355</v>
+        <v>0.02932345154779712</v>
       </c>
       <c r="P12" t="n">
-        <v>3533.436083919984</v>
+        <v>3532.149471438617</v>
       </c>
       <c r="Q12" t="n">
-        <v>9486.762899365991</v>
+        <v>8521.169345766268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_15</t>
+          <t>model_4_6_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9990619968021108</v>
+        <v>0.9976886923193776</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8115272120536242</v>
+        <v>0.6277716034333993</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9963592672648547</v>
+        <v>0.9885587966044657</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9966752320807261</v>
+        <v>0.9882438927221548</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9965466525264226</v>
+        <v>0.9888646326380399</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004665251176950532</v>
+        <v>0.0008502939628964547</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1118855885254815</v>
+        <v>0.2209708556314232</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001524221913258314</v>
+        <v>0.002446334533715447</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001554924347025376</v>
+        <v>0.003061238643793876</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001539577322368288</v>
+        <v>0.002753783044909994</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007234692002063453</v>
+        <v>0.007511941203933776</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02159919252414435</v>
+        <v>0.02915980046050478</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000132001747044</v>
+        <v>1.000176813623059</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02169895837847403</v>
+        <v>0.02939401948786265</v>
       </c>
       <c r="P13" t="n">
-        <v>3533.340397392529</v>
+        <v>3532.139856859133</v>
       </c>
       <c r="Q13" t="n">
-        <v>9486.667212838536</v>
+        <v>8521.159731186784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_7</t>
+          <t>model_4_6_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999394919892626</v>
+        <v>0.9976933423518646</v>
       </c>
       <c r="C14" t="n">
-        <v>0.811202476027268</v>
+        <v>0.6277304086062743</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9980983130334854</v>
+        <v>0.9886027482425437</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9983875929676059</v>
+        <v>0.9883681384976533</v>
       </c>
       <c r="F14" t="n">
-        <v>0.998261362981533</v>
+        <v>0.9889490396600293</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003009425436319072</v>
+        <v>0.0008485832886387527</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1120783658585925</v>
+        <v>0.2209953106603285</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0007961564765625437</v>
+        <v>0.002436936885030571</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0007540890109803263</v>
+        <v>0.00302888559016014</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007751221520401422</v>
+        <v>0.002732909137613513</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007117315585985772</v>
+        <v>0.007619122351407756</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01734769562886977</v>
+        <v>0.02913045294256086</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000085150702529</v>
+        <v>1.000176457898419</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01742782397964634</v>
+        <v>0.0293644362430962</v>
       </c>
       <c r="P14" t="n">
-        <v>3534.21718239276</v>
+        <v>3532.1438846365</v>
       </c>
       <c r="Q14" t="n">
-        <v>9487.543997838768</v>
+        <v>8521.16375896415</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_8</t>
+          <t>model_4_6_15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9993939545304076</v>
+        <v>0.9976897020266849</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8111519037571319</v>
+        <v>0.6276702749919789</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9979905485586054</v>
+        <v>0.9886058429582899</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9983075343115628</v>
+        <v>0.9884759880134004</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9981687710171144</v>
+        <v>0.989007151600213</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003014226760275672</v>
+        <v>0.0008499225073629276</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1121083877427536</v>
+        <v>0.2210310085714111</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0008412729369105834</v>
+        <v>0.002436275179286839</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000791530768268099</v>
+        <v>0.003000802050471639</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000816401661195577</v>
+        <v>0.002718538019860232</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007106461754774199</v>
+        <v>0.007750001083184917</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01736152862012925</v>
+        <v>0.02915343045617321</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000085286554411</v>
+        <v>1.000176736381068</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0174417208649699</v>
+        <v>0.0293875983180157</v>
       </c>
       <c r="P15" t="n">
-        <v>3534.213994077886</v>
+        <v>3532.140730760888</v>
       </c>
       <c r="Q15" t="n">
-        <v>9487.540809523894</v>
+        <v>8521.160605088538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_10</t>
+          <t>model_4_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999379282077173</v>
+        <v>0.9976761693495572</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8111089000953861</v>
+        <v>0.6275900101192649</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9977770094994353</v>
+        <v>0.988560280108302</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9981389387475146</v>
+        <v>0.9885650741658287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9979800680985741</v>
+        <v>0.9890343512772034</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003087201649780619</v>
+        <v>0.0008549009677211294</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1121339165740274</v>
+        <v>0.2210786572671161</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0009306727739768005</v>
+        <v>0.002446017333982159</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000870379383781758</v>
+        <v>0.002977604408089264</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0009005295215606989</v>
+        <v>0.00271181152338388</v>
       </c>
       <c r="L16" t="n">
-        <v>0.007028485641263996</v>
+        <v>0.007905452045109868</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01757043439924186</v>
+        <v>0.02923868956915014</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000087351354898</v>
+        <v>1.000177771622586</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01765159157198452</v>
+        <v>0.02947354225414641</v>
       </c>
       <c r="P16" t="n">
-        <v>3534.166150612682</v>
+        <v>3532.129049845926</v>
       </c>
       <c r="Q16" t="n">
-        <v>9487.492966058689</v>
+        <v>8521.148924173576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_6</t>
+          <t>model_4_6_13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9993951468001078</v>
+        <v>0.9976557159718861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8110750840830983</v>
+        <v>0.6274883134896754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9982226267916379</v>
+        <v>0.9884936890934021</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9984920350062104</v>
+        <v>0.9886480984703344</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9983745138834675</v>
+        <v>0.9890492776713856</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003008296889637091</v>
+        <v>0.0008624254456175126</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1121539912196971</v>
+        <v>0.2211390287795061</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0007441115262517791</v>
+        <v>0.002460255687567269</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000705243656169945</v>
+        <v>0.002955985244252102</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0007246770219289232</v>
+        <v>0.002708120217126588</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007125377008285538</v>
+        <v>0.008082088829185881</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01734444259593571</v>
+        <v>0.02936708098564637</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000085118770672</v>
+        <v>1.00017933629346</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01742455592107605</v>
+        <v>0.02960296494356694</v>
       </c>
       <c r="P17" t="n">
-        <v>3534.217932541494</v>
+        <v>3532.111523705317</v>
       </c>
       <c r="Q17" t="n">
-        <v>9487.5447479875</v>
+        <v>8521.131398032969</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_9</t>
+          <t>model_4_6_12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999389735853592</v>
+        <v>0.9976339911045139</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8110434052455346</v>
+        <v>0.6273995657031265</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9978894251815449</v>
+        <v>0.9884373536914476</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9982263893063416</v>
+        <v>0.9887614850880634</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9980787198588111</v>
+        <v>0.9890846474020234</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000303520876441289</v>
+        <v>0.0008704176846976313</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1121727971461294</v>
+        <v>0.2211917132993063</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0008836090484768711</v>
+        <v>0.002472301207125624</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0008294805883221914</v>
+        <v>0.002926459867554068</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0008565484237897072</v>
+        <v>0.002699373261470142</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007064733488704791</v>
+        <v>0.008271901439402388</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01742185054583149</v>
+        <v>0.02950284197662373</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000085880233314</v>
+        <v>1.000180998232519</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0175023214153682</v>
+        <v>0.02973981640178885</v>
       </c>
       <c r="P18" t="n">
-        <v>3534.200120328383</v>
+        <v>3532.093074728344</v>
       </c>
       <c r="Q18" t="n">
-        <v>9487.526935774391</v>
+        <v>8521.112949055994</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_12</t>
+          <t>model_4_6_11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9992760982937149</v>
+        <v>0.9976045221005707</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8109442967733745</v>
+        <v>0.6272873311699612</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9971229502682032</v>
+        <v>0.9883639963887419</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9975996735747203</v>
+        <v>0.988878829975902</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9973901237350066</v>
+        <v>0.9891146896717893</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003600396347094344</v>
+        <v>0.0008812588705577077</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1122316322164667</v>
+        <v>0.2212583405664726</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001204499908605244</v>
+        <v>0.002487986314426407</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001122582414802277</v>
+        <v>0.002895903774723887</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001163539534470512</v>
+        <v>0.002691943790090985</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007092660085196855</v>
+        <v>0.008486617297933874</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01897471039856562</v>
+        <v>0.0296860046243631</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000101872030003</v>
+        <v>1.000183252593286</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01906235386910069</v>
+        <v>0.02992445025908811</v>
       </c>
       <c r="P19" t="n">
-        <v>3533.858592872318</v>
+        <v>3532.068318276015</v>
       </c>
       <c r="Q19" t="n">
-        <v>9487.185408318326</v>
+        <v>8521.088192603665</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_5</t>
+          <t>model_4_6_10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9993882322136141</v>
+        <v>0.9975665632836198</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8109378676871765</v>
+        <v>0.6271557131336263</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9983510618377046</v>
+        <v>0.9882799661632341</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985872561947094</v>
+        <v>0.9890032467094227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9984847558320563</v>
+        <v>0.9891438562805523</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003042687265757884</v>
+        <v>0.0008952233259015938</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1122354487997559</v>
+        <v>0.2213364747184441</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000690341165753857</v>
+        <v>0.002505953484087586</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0006607106999021155</v>
+        <v>0.002863506204372848</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0006755287664117625</v>
+        <v>0.002684730870204429</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007145203755543437</v>
+        <v>0.008725908986062049</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01744330033496495</v>
+        <v>0.02992028285129661</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000086091835049</v>
+        <v>1.000186156419552</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01752387028026738</v>
+        <v>0.03016061026907832</v>
       </c>
       <c r="P20" t="n">
-        <v>3534.195198556059</v>
+        <v>3532.036874689338</v>
       </c>
       <c r="Q20" t="n">
-        <v>9487.522014002066</v>
+        <v>8521.056749016989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_11</t>
+          <t>model_4_6_9</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9992923610268634</v>
+        <v>0.9975334709707667</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8108792640665496</v>
+        <v>0.6270589727163213</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9972037976882339</v>
+        <v>0.9882820175105181</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9976653306131354</v>
+        <v>0.9891914850222716</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9974625260354286</v>
+        <v>0.9892438602558522</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0003519512044000171</v>
+        <v>0.0009073974704662222</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1122702384405046</v>
+        <v>0.2213939040091248</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001170652488812051</v>
+        <v>0.002505514869238423</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001091875992560494</v>
+        <v>0.002814489775386929</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001131261016114024</v>
+        <v>0.002659999826974991</v>
       </c>
       <c r="L21" t="n">
-        <v>0.007080295581486326</v>
+        <v>0.008968005682786972</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01876036258711481</v>
+        <v>0.03012303886506509</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00009958343526</v>
+        <v>1.000188687961233</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01884701599320607</v>
+        <v>0.03036499487136888</v>
       </c>
       <c r="P21" t="n">
-        <v>3533.904036031678</v>
+        <v>3532.009859956821</v>
       </c>
       <c r="Q21" t="n">
-        <v>9487.230851477685</v>
+        <v>8521.029734284471</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_4</t>
+          <t>model_4_6_8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9993679550265383</v>
+        <v>0.9974732250395835</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8105393130144011</v>
+        <v>0.6268879922496698</v>
       </c>
       <c r="D22" t="n">
-        <v>0.998473925772816</v>
+        <v>0.9881847317089743</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9986396672314953</v>
+        <v>0.98933216164124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9985699367892054</v>
+        <v>0.9892758507299986</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003143537850364899</v>
+        <v>0.0009295610067204943</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1124720480701808</v>
+        <v>0.2214954054001007</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006389031954688703</v>
+        <v>0.002526316318852537</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0006361991552981081</v>
+        <v>0.002777858202359673</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0006375532452897963</v>
+        <v>0.002652088563480998</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00719900028069563</v>
+        <v>0.009263393346860356</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01773002495871029</v>
+        <v>0.03048870293601376</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000088945369158</v>
+        <v>1.000193296738098</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01781191927421838</v>
+        <v>0.03073359605031159</v>
       </c>
       <c r="P22" t="n">
-        <v>3534.129983004746</v>
+        <v>3531.961596238091</v>
       </c>
       <c r="Q22" t="n">
-        <v>9487.456798450752</v>
+        <v>8520.981470565741</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_2</t>
+          <t>model_4_6_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9992993161883874</v>
+        <v>0.9973768518108834</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8103026342211725</v>
+        <v>0.6267560064966617</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9986752359875396</v>
+        <v>0.9883666491344915</v>
       </c>
       <c r="E23" t="n">
-        <v>0.998770846077761</v>
+        <v>0.9899125685533922</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9987332681306691</v>
+        <v>0.989660068125953</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0003484919863974968</v>
+        <v>0.000965015210951058</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1126125508258328</v>
+        <v>0.221573757844574</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0005546230620544454</v>
+        <v>0.002487419109796633</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0005748495553183056</v>
+        <v>0.002626722794472281</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0005647365851437821</v>
+        <v>0.00255707137041082</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007238054265780836</v>
+        <v>0.009825663285135077</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01866794006840328</v>
+        <v>0.03106469396197326</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000098604660908</v>
+        <v>1.000200669231114</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01875416657837201</v>
+        <v>0.03131421358453714</v>
       </c>
       <c r="P23" t="n">
-        <v>3533.923790645167</v>
+        <v>3531.886733388212</v>
       </c>
       <c r="Q23" t="n">
-        <v>9487.250606091175</v>
+        <v>8520.906607715862</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_0</t>
+          <t>model_4_6_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9990706325566479</v>
+        <v>0.9973928416222616</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8102908714497793</v>
+        <v>0.6266996903046772</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9989696789902658</v>
+        <v>0.9880475458550806</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9989857938386456</v>
+        <v>0.9894582284795151</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9989842625616655</v>
+        <v>0.9892829145887063</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0004622300402253594</v>
+        <v>0.0009591328093146641</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1126195337150571</v>
+        <v>0.2216071895688688</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004313521411685433</v>
+        <v>0.00255564911544002</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0004743229877944428</v>
+        <v>0.002745030951986102</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004528378153386999</v>
+        <v>0.002650341666974692</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006992397728819286</v>
+        <v>0.009598928612192576</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02149953581418351</v>
+        <v>0.03096986937839203</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000130786469006</v>
+        <v>1.000199446020329</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02159884135793454</v>
+        <v>0.03121862734547867</v>
       </c>
       <c r="P24" t="n">
-        <v>3533.358895736478</v>
+        <v>3531.898962010751</v>
       </c>
       <c r="Q24" t="n">
-        <v>9486.685711182487</v>
+        <v>8520.918836338402</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_1</t>
+          <t>model_4_6_4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9991644016066608</v>
+        <v>0.9971925152720104</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8101873015678099</v>
+        <v>0.6265724627386622</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9988297643113545</v>
+        <v>0.9884217956489408</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9989025272925874</v>
+        <v>0.990569868697924</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9988748937497468</v>
+        <v>0.990029965886193</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004155930807865537</v>
+        <v>0.001032829741858878</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1126810172709801</v>
+        <v>0.221682717348</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004899285418816231</v>
+        <v>0.002475627795714728</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0005132650080804317</v>
+        <v>0.002455564726971138</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0005015968075608051</v>
+        <v>0.002465595431863979</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00705860729675024</v>
+        <v>0.01052033313186214</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02038610018582646</v>
+        <v>0.03213766858157073</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000117590694783</v>
+        <v>1.000214770863524</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02048026281247169</v>
+        <v>0.03239580661262208</v>
       </c>
       <c r="P25" t="n">
-        <v>3533.571607895222</v>
+        <v>3531.750905843079</v>
       </c>
       <c r="Q25" t="n">
-        <v>9486.898423341228</v>
+        <v>8520.770780170729</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_3</t>
+          <t>model_4_6_5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9993321905178236</v>
+        <v>0.997269008931178</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8100307918448247</v>
+        <v>0.6265547227504469</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9985635558068909</v>
+        <v>0.9882615680966071</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9986565396170283</v>
+        <v>0.9901199322833595</v>
       </c>
       <c r="F26" t="n">
-        <v>0.998620872551423</v>
+        <v>0.9897238215993117</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003321416152645367</v>
+        <v>0.001004688920480844</v>
       </c>
       <c r="H26" t="n">
-        <v>0.112773928203412</v>
+        <v>0.2216932485713322</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0006013788639780727</v>
+        <v>0.002509887320781791</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0006283082938321219</v>
+        <v>0.002572726190962774</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0006148449759923386</v>
+        <v>0.002541305098110809</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007329798979103347</v>
+        <v>0.01020397652254137</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01822475281765261</v>
+        <v>0.03169682824007544</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000093978377193</v>
+        <v>1.000208919145412</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01830893226245212</v>
+        <v>0.03195142532796619</v>
       </c>
       <c r="P26" t="n">
-        <v>3534.019898255987</v>
+        <v>3531.806154634492</v>
       </c>
       <c r="Q26" t="n">
-        <v>9487.346713701994</v>
+        <v>8520.826028962143</v>
       </c>
     </row>
   </sheetData>
